--- a/Original Excel Files/U-Y.xlsx
+++ b/Original Excel Files/U-Y.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614950A8-3DC5-4A3E-902D-1F088AE298F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="30570" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,7 +865,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -948,6 +949,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,6 +960,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1005,7 +1011,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1038,9 +1044,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1073,6 +1096,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1248,1253 +1288,1478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:G120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1980</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F9" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>104</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F10" t="s">
         <v>105</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" t="s">
         <v>110</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>112</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>113</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>114</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F12" t="s">
         <v>115</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>118</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F13" t="s">
         <v>120</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>122</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>124</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F14" t="s">
         <v>125</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>129</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F15" t="s">
         <v>130</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6">
+      <c r="F16" s="9">
         <v>1977</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>145</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>146</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>147</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>100</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>148</v>
       </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>5</v>
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>168</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
+      <c r="A30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1984</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1980</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>44</v>
+      <c r="A31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1993</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" t="s">
-        <v>153</v>
+      <c r="A37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" t="s">
+        <v>212</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
+      <c r="A42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1964</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1980</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" t="s">
-        <v>173</v>
+      <c r="A45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1986</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1984</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="1"/>
+      <c r="A47" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" t="s">
+        <v>225</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>230</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" t="s">
-        <v>180</v>
-      </c>
-      <c r="F49" t="s">
-        <v>181</v>
-      </c>
-      <c r="G49" t="s">
-        <v>182</v>
+      <c r="A49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2012</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
-      <c r="G50" s="1"/>
+      <c r="A50" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>236</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1993</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1983</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="7"/>
-      <c r="G53" s="1"/>
+      <c r="C53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1986</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>193</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+        <v>244</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="6">
-        <v>2002</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="A56" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F56" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" t="s">
+        <v>255</v>
+      </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G57" s="1"/>
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>258</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1969</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="B62" s="5"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="4"/>
-      <c r="G62" s="1"/>
+      <c r="C62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1988</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>200</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+        <v>273</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+        <v>276</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>207</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" t="s">
-        <v>210</v>
-      </c>
-      <c r="F66" t="s">
-        <v>211</v>
-      </c>
-      <c r="G66" t="s">
-        <v>212</v>
+      <c r="A66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1964</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>59</v>
+      <c r="A68" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" t="s">
+        <v>41</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1980</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>62</v>
+      <c r="A69" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" t="s">
+        <v>41</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>215</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>220</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="6">
-        <v>1986</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>65</v>
+      <c r="A72" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="A73" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="G73" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>225</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" t="s">
-        <v>229</v>
-      </c>
-      <c r="E76" t="s">
-        <v>230</v>
-      </c>
-      <c r="F76" t="s">
-        <v>231</v>
-      </c>
-      <c r="G76" t="s">
-        <v>232</v>
-      </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="6">
-        <v>2012</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>233</v>
-      </c>
-      <c r="B80" t="s">
-        <v>234</v>
-      </c>
-      <c r="C80" t="s">
-        <v>235</v>
-      </c>
-      <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>236</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="6">
-        <v>1983</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B84" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" t="s">
-        <v>214</v>
-      </c>
-      <c r="F84" t="s">
-        <v>239</v>
-      </c>
-      <c r="G84" t="s">
-        <v>240</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="4"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" s="6">
-        <v>1986</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" t="s">
-        <v>242</v>
-      </c>
-      <c r="F87" t="s">
-        <v>243</v>
-      </c>
-      <c r="G87" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B88" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88" t="s">
-        <v>247</v>
-      </c>
-      <c r="F88" t="s">
-        <v>181</v>
-      </c>
-      <c r="G88" t="s">
-        <v>248</v>
-      </c>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>249</v>
-      </c>
-      <c r="B89" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" t="s">
-        <v>251</v>
-      </c>
-      <c r="D89" t="s">
-        <v>252</v>
-      </c>
-      <c r="E89" t="s">
-        <v>253</v>
-      </c>
-      <c r="F89" t="s">
-        <v>254</v>
-      </c>
-      <c r="G89" t="s">
-        <v>255</v>
-      </c>
+      <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>256</v>
-      </c>
-      <c r="B90" t="s">
-        <v>257</v>
-      </c>
-      <c r="F90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s">
-        <v>258</v>
-      </c>
-      <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>259</v>
-      </c>
-      <c r="B91" t="s">
-        <v>260</v>
-      </c>
-      <c r="C91" t="s">
-        <v>261</v>
-      </c>
-      <c r="F91" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>262</v>
-      </c>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="7"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>263</v>
-      </c>
-      <c r="B92" t="s">
-        <v>264</v>
-      </c>
-      <c r="C92" t="s">
-        <v>265</v>
-      </c>
-      <c r="F92" t="s">
-        <v>266</v>
-      </c>
-      <c r="G92" t="s">
-        <v>267</v>
-      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" t="s">
-        <v>268</v>
-      </c>
-      <c r="C93" t="s">
-        <v>269</v>
-      </c>
-      <c r="F93" t="s">
-        <v>224</v>
-      </c>
-      <c r="G93" t="s">
-        <v>270</v>
-      </c>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="7"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A94" s="4"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="6">
-        <v>1969</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="4"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1988</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H98" s="1"/>
@@ -2505,275 +2770,101 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>271</v>
-      </c>
-      <c r="B100" t="s">
-        <v>272</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>273</v>
-      </c>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="7"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>274</v>
-      </c>
-      <c r="B101" t="s">
-        <v>275</v>
-      </c>
-      <c r="F101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" t="s">
-        <v>276</v>
-      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" t="s">
-        <v>39</v>
-      </c>
-      <c r="F107" t="s">
-        <v>40</v>
-      </c>
-      <c r="G107" t="s">
-        <v>41</v>
-      </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" t="s">
-        <v>39</v>
-      </c>
-      <c r="F108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" t="s">
-        <v>41</v>
-      </c>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="7"/>
+      <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>277</v>
-      </c>
-      <c r="B111" t="s">
-        <v>278</v>
-      </c>
-      <c r="C111" t="s">
-        <v>279</v>
-      </c>
-      <c r="F111" t="s">
-        <v>110</v>
-      </c>
-      <c r="G111" t="s">
-        <v>280</v>
-      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I120">
+    <sortCondition ref="A1:A120"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2785,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
